--- a/dtpu_configurations/only_fp32/30mhz/graph.xlsx
+++ b/dtpu_configurations/only_fp32/30mhz/graph.xlsx
@@ -1,33 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\uni\2019-2020\thesis\cogitantium\dtpu_configurations\only_fp32\30mhz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BEA8BC8-3D75-46CF-9F57-BD09AD547DB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA3B1DF-3DE5-4DE0-904F-839A84DC1E43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="utilization" sheetId="1" r:id="rId1"/>
     <sheet name="tmiinng" sheetId="2" r:id="rId2"/>
     <sheet name="power" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="23">
   <si>
     <t>Clocks</t>
   </si>
@@ -94,12 +102,19 @@
   <si>
     <t>8x8</t>
   </si>
+  <si>
+    <t>PL dynamic</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="165" formatCode="0.000%"/>
+    <numFmt numFmtId="168" formatCode="0.00000000"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,13 +130,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -133,15 +160,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Percentuale" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -154,6 +189,1342 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>utilization!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3x3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>utilization!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>LUT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LUTRAM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FF</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BRAM</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DSP</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>I/O</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>BUFG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>utilization!$B$2:$H$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.25490000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.3400000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1326</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5786</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.1799999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1300000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C9B6-47D9-9799-AFE25964429E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>utilization!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4x4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>utilization!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>LUT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LUTRAM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FF</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BRAM</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DSP</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>I/O</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>BUFG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>utilization!$B$3:$H$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.33979999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.3400000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15279999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5786</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.14549999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1300000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C9B6-47D9-9799-AFE25964429E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>utilization!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5x5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>utilization!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>LUT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LUTRAM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FF</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BRAM</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DSP</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>I/O</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>BUFG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>utilization!$B$4:$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.4546</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.7099999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1759</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5786</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2273</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1300000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C9B6-47D9-9799-AFE25964429E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>utilization!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6x6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>utilization!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>LUT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LUTRAM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FF</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BRAM</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DSP</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>I/O</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>BUFG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>utilization!$B$5:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.59419999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.08E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.20610000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5786</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.32729999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1300000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C9B6-47D9-9799-AFE25964429E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>utilization!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7x7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>utilization!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>LUT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LUTRAM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FF</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BRAM</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DSP</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>I/O</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>BUFG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>utilization!$B$6:$H$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.76080000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.4500000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.23910000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5786</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.44550000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1300000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-C9B6-47D9-9799-AFE25964429E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>utilization!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8x8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>utilization!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>LUT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LUTRAM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FF</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BRAM</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DSP</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>I/O</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>BUFG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>utilization!$B$7:$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.95920000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.8199999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.27979999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5786</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.58179999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1300000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-C9B6-47D9-9799-AFE25964429E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="479234728"/>
+        <c:axId val="479226200"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="479234728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="479226200"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="479226200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="479234728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7692B9F1-6393-4E6D-B8A1-6BA08381483F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -421,8 +1792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:H7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -454,160 +1825,161 @@
       <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2">
-        <v>25.49</v>
-      </c>
-      <c r="C2">
-        <v>5.34</v>
-      </c>
-      <c r="D2">
-        <v>13.26</v>
-      </c>
-      <c r="E2">
-        <v>57.86</v>
-      </c>
-      <c r="F2">
-        <v>8.18</v>
-      </c>
-      <c r="G2">
-        <v>8</v>
-      </c>
-      <c r="H2">
-        <v>3.13</v>
+      <c r="B2" s="2">
+        <v>0.25490000000000002</v>
+      </c>
+      <c r="C2" s="2">
+        <v>5.3400000000000003E-2</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.1326</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.5786</v>
+      </c>
+      <c r="F2" s="2">
+        <v>8.1799999999999998E-2</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="H2" s="2">
+        <v>3.1300000000000001E-2</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>17</v>
       </c>
-      <c r="B3">
-        <v>33.979999999999997</v>
-      </c>
-      <c r="C3">
-        <v>5.34</v>
-      </c>
-      <c r="D3">
-        <v>15.28</v>
-      </c>
-      <c r="E3">
-        <v>57.86</v>
-      </c>
-      <c r="F3">
-        <v>14.55</v>
-      </c>
-      <c r="G3">
-        <v>8</v>
-      </c>
-      <c r="H3">
-        <v>3.13</v>
+      <c r="B3" s="2">
+        <v>0.33979999999999999</v>
+      </c>
+      <c r="C3" s="2">
+        <v>5.3400000000000003E-2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.15279999999999999</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.5786</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.14549999999999999</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="H3" s="2">
+        <v>3.1300000000000001E-2</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>18</v>
       </c>
-      <c r="B4">
-        <v>45.46</v>
-      </c>
-      <c r="C4">
-        <v>5.71</v>
-      </c>
-      <c r="D4">
-        <v>17.59</v>
-      </c>
-      <c r="E4">
-        <v>57.86</v>
-      </c>
-      <c r="F4">
-        <v>22.73</v>
-      </c>
-      <c r="G4">
-        <v>8</v>
-      </c>
-      <c r="H4">
-        <v>3.13</v>
+      <c r="B4" s="2">
+        <v>0.4546</v>
+      </c>
+      <c r="C4" s="2">
+        <v>5.7099999999999998E-2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.1759</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.5786</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.2273</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="H4" s="2">
+        <v>3.1300000000000001E-2</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>19</v>
       </c>
-      <c r="B5">
-        <v>59.42</v>
-      </c>
-      <c r="C5">
-        <v>6.08</v>
-      </c>
-      <c r="D5">
-        <v>20.61</v>
-      </c>
-      <c r="E5">
-        <v>57.86</v>
-      </c>
-      <c r="F5">
-        <v>32.729999999999997</v>
-      </c>
-      <c r="G5">
-        <v>8</v>
-      </c>
-      <c r="H5">
-        <v>3.13</v>
+      <c r="B5" s="2">
+        <v>0.59419999999999995</v>
+      </c>
+      <c r="C5" s="2">
+        <v>6.08E-2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.20610000000000001</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.5786</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.32729999999999998</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="H5" s="2">
+        <v>3.1300000000000001E-2</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>20</v>
       </c>
-      <c r="B6">
-        <v>76.08</v>
-      </c>
-      <c r="C6">
-        <v>6.45</v>
-      </c>
-      <c r="D6">
-        <v>23.91</v>
-      </c>
-      <c r="E6">
-        <v>57.86</v>
-      </c>
-      <c r="F6">
-        <v>44.55</v>
-      </c>
-      <c r="G6">
-        <v>8</v>
-      </c>
-      <c r="H6">
-        <v>3.13</v>
+      <c r="B6" s="2">
+        <v>0.76080000000000003</v>
+      </c>
+      <c r="C6" s="2">
+        <v>6.4500000000000002E-2</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.23910000000000001</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.5786</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.44550000000000001</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="H6" s="2">
+        <v>3.1300000000000001E-2</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="B7">
-        <v>95.92</v>
-      </c>
-      <c r="C7">
-        <v>6.82</v>
-      </c>
-      <c r="D7">
-        <v>27.98</v>
-      </c>
-      <c r="E7">
-        <v>57.86</v>
-      </c>
-      <c r="F7">
-        <v>58.18</v>
-      </c>
-      <c r="G7">
-        <v>8</v>
-      </c>
-      <c r="H7">
-        <v>3.13</v>
+      <c r="B7" s="2">
+        <v>0.95920000000000005</v>
+      </c>
+      <c r="C7" s="2">
+        <v>6.8199999999999997E-2</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.27979999999999999</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.5786</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.58179999999999998</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="H7" s="2">
+        <v>3.1300000000000001E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -702,15 +2074,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F80C0F0-3D4F-4150-B1CD-22883B1F27E5}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:AA12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:K7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="11" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -741,218 +2117,557 @@
       <c r="K1" t="s">
         <v>9</v>
       </c>
+      <c r="L1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U1" t="s">
+        <v>5</v>
+      </c>
+      <c r="V1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2">
-        <v>0.01</v>
-      </c>
-      <c r="C2">
-        <v>0.01</v>
-      </c>
-      <c r="D2">
-        <v>0.01</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>1.26</v>
-      </c>
-      <c r="J2">
-        <v>0.13</v>
-      </c>
-      <c r="K2">
-        <v>1.42</v>
+      <c r="B2" s="5">
+        <v>1.2566697783768177E-2</v>
+      </c>
+      <c r="C2" s="5">
+        <v>8.5673732683062553E-3</v>
+      </c>
+      <c r="D2" s="5">
+        <v>7.2884755209088326E-3</v>
+      </c>
+      <c r="E2" s="5">
+        <v>3.0426525045186281E-3</v>
+      </c>
+      <c r="F2" s="5">
+        <v>2.5551757971697953E-6</v>
+      </c>
+      <c r="G2" s="5">
+        <v>1.1766477255150676E-3</v>
+      </c>
+      <c r="H2" s="5">
+        <v>5.8787886518985033E-4</v>
+      </c>
+      <c r="I2" s="5">
+        <v>1.2575732469558716</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0.12729351222515106</v>
+      </c>
+      <c r="K2" s="5">
+        <v>1.4181030988693237</v>
+      </c>
+      <c r="L2">
+        <f>K2-J2-I2</f>
+        <v>3.3236339688301086E-2</v>
+      </c>
+      <c r="O2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" s="4">
+        <f>B2/L2</f>
+        <v>0.37810113573341381</v>
+      </c>
+      <c r="Q2" s="4">
+        <f>C2/L2</f>
+        <v>0.25777126328149486</v>
+      </c>
+      <c r="R2" s="4">
+        <f>D2/L2</f>
+        <v>0.21929236460037491</v>
+      </c>
+      <c r="S2" s="4">
+        <f>E2/L2</f>
+        <v>9.1545956415580151E-2</v>
+      </c>
+      <c r="T2" s="4">
+        <f>F2/L2</f>
+        <v>7.6878977081498411E-5</v>
+      </c>
+      <c r="U2" s="4">
+        <f>G2/L2</f>
+        <v>3.5402446134260621E-2</v>
+      </c>
+      <c r="V2" s="4">
+        <f>H2/L2</f>
+        <v>1.7687834180993726E-2</v>
+      </c>
+      <c r="W2" s="3"/>
+      <c r="X2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y2" s="2">
+        <f>I2/K2</f>
+        <v>0.8867995902121325</v>
+      </c>
+      <c r="Z2" s="2">
+        <f>J2/K2</f>
+        <v>8.9763228305927978E-2</v>
+      </c>
+      <c r="AA2" s="2">
+        <f>L2/K2</f>
+        <v>2.3437181481939465E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>17</v>
       </c>
-      <c r="B3">
-        <v>0.01</v>
-      </c>
-      <c r="C3">
-        <v>0.01</v>
-      </c>
-      <c r="D3">
-        <v>0.01</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>1.26</v>
-      </c>
-      <c r="J3">
-        <v>0.13</v>
-      </c>
-      <c r="K3">
-        <v>1.43</v>
+      <c r="B3" s="5">
+        <v>1.2889967299997807E-2</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1.3598280027508736E-2</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1.1651573702692986E-2</v>
+      </c>
+      <c r="E3" s="5">
+        <v>2.1130586974322796E-3</v>
+      </c>
+      <c r="F3" s="5">
+        <v>9.2071229573775781E-7</v>
+      </c>
+      <c r="G3" s="5">
+        <v>1.2930387165397406E-3</v>
+      </c>
+      <c r="H3" s="5">
+        <v>5.8787886518985033E-4</v>
+      </c>
+      <c r="I3" s="5">
+        <v>1.2575732469558716</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0.12736599147319794</v>
+      </c>
+      <c r="K3" s="5">
+        <v>1.4270780086517334</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L7" si="0">K3-J3-I3</f>
+        <v>4.2138770222663879E-2</v>
+      </c>
+      <c r="O3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="4">
+        <f t="shared" ref="P3:P7" si="1">B3/L3</f>
+        <v>0.30589329569625356</v>
+      </c>
+      <c r="Q3" s="4">
+        <f t="shared" ref="Q3:Q7" si="2">C3/L3</f>
+        <v>0.32270234645326806</v>
+      </c>
+      <c r="R3" s="4">
+        <f t="shared" ref="R3:R7" si="3">D3/L3</f>
+        <v>0.27650483488543559</v>
+      </c>
+      <c r="S3" s="4">
+        <f t="shared" ref="S3:S7" si="4">E3/L3</f>
+        <v>5.0145238844578194E-2</v>
+      </c>
+      <c r="T3" s="4">
+        <f t="shared" ref="T3:T7" si="5">F3/L3</f>
+        <v>2.1849529325907159E-5</v>
+      </c>
+      <c r="U3" s="4">
+        <f t="shared" ref="U3:U7" si="6">G3/L3</f>
+        <v>3.0685250416830952E-2</v>
+      </c>
+      <c r="V3" s="4">
+        <f t="shared" ref="V3:V7" si="7">H3/L3</f>
+        <v>1.3951020926416738E-2</v>
+      </c>
+      <c r="W3" s="3"/>
+      <c r="X3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y3" s="2">
+        <f t="shared" ref="Y3:Y7" si="8">I3/K3</f>
+        <v>0.88122249753115767</v>
+      </c>
+      <c r="Z3" s="2">
+        <f t="shared" ref="Z3:Z7" si="9">J3/K3</f>
+        <v>8.9249494912706312E-2</v>
+      </c>
+      <c r="AA3" s="2">
+        <f t="shared" ref="AA3:AA7" si="10">L3/K3</f>
+        <v>2.9528007556135986E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>18</v>
       </c>
-      <c r="B4">
-        <v>0.01</v>
-      </c>
-      <c r="C4">
-        <v>0.02</v>
-      </c>
-      <c r="D4">
-        <v>0.02</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>1.26</v>
-      </c>
-      <c r="J4">
-        <v>0.13</v>
-      </c>
-      <c r="K4">
-        <v>1.45</v>
+      <c r="B4" s="5">
+        <v>1.4382959343492985E-2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2.187761478126049E-2</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1.9314128905534744E-2</v>
+      </c>
+      <c r="E4" s="5">
+        <v>3.5618755500763655E-3</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1.8419950720272027E-6</v>
+      </c>
+      <c r="G4" s="5">
+        <v>1.1744799558073282E-3</v>
+      </c>
+      <c r="H4" s="5">
+        <v>5.8787886518985033E-4</v>
+      </c>
+      <c r="I4" s="5">
+        <v>1.2575732469558716</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0.12751911580562592</v>
+      </c>
+      <c r="K4" s="5">
+        <v>1.4459971189498901</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>6.0904756188392639E-2</v>
+      </c>
+      <c r="O4" t="s">
+        <v>18</v>
+      </c>
+      <c r="P4" s="4">
+        <f t="shared" si="1"/>
+        <v>0.23615494492750502</v>
+      </c>
+      <c r="Q4" s="4">
+        <f t="shared" si="2"/>
+        <v>0.35921028422785106</v>
+      </c>
+      <c r="R4" s="4">
+        <f t="shared" si="3"/>
+        <v>0.31712020725921031</v>
+      </c>
+      <c r="S4" s="4">
+        <f t="shared" si="4"/>
+        <v>5.8482715849951884E-2</v>
+      </c>
+      <c r="T4" s="4">
+        <f t="shared" si="5"/>
+        <v>3.024386250442382E-5</v>
+      </c>
+      <c r="U4" s="4">
+        <f t="shared" si="6"/>
+        <v>1.928387911404468E-2</v>
+      </c>
+      <c r="V4" s="4">
+        <f t="shared" si="7"/>
+        <v>9.6524294978113639E-3</v>
+      </c>
+      <c r="W4" s="3"/>
+      <c r="X4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y4" s="2">
+        <f t="shared" si="8"/>
+        <v>0.86969277495458952</v>
+      </c>
+      <c r="Z4" s="2">
+        <f t="shared" si="9"/>
+        <v>8.8187669349045913E-2</v>
+      </c>
+      <c r="AA4" s="2">
+        <f t="shared" si="10"/>
+        <v>4.2119555696364594E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>19</v>
       </c>
-      <c r="B5">
-        <v>0.02</v>
-      </c>
-      <c r="C5">
-        <v>0.03</v>
-      </c>
-      <c r="D5">
-        <v>0.03</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>1.26</v>
-      </c>
-      <c r="J5">
-        <v>0.13</v>
-      </c>
-      <c r="K5">
-        <v>1.47</v>
+      <c r="B5" s="5">
+        <v>1.5272335149347782E-2</v>
+      </c>
+      <c r="C5" s="5">
+        <v>3.4619703888893127E-2</v>
+      </c>
+      <c r="D5" s="5">
+        <v>2.9946044087409973E-2</v>
+      </c>
+      <c r="E5" s="5">
+        <v>4.6352031640708447E-3</v>
+      </c>
+      <c r="F5" s="5">
+        <v>7.450729299307568E-6</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1.0182112455368042E-3</v>
+      </c>
+      <c r="H5" s="5">
+        <v>5.8787886518985033E-4</v>
+      </c>
+      <c r="I5" s="5">
+        <v>1.2575732469558716</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0.12772536277770996</v>
+      </c>
+      <c r="K5" s="5">
+        <v>1.4713894128799438</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>8.6090803146362305E-2</v>
+      </c>
+      <c r="O5" t="s">
+        <v>19</v>
+      </c>
+      <c r="P5" s="4">
+        <f t="shared" si="1"/>
+        <v>0.1773979866744117</v>
+      </c>
+      <c r="Q5" s="4">
+        <f t="shared" si="2"/>
+        <v>0.40213010709211805</v>
+      </c>
+      <c r="R5" s="4">
+        <f t="shared" si="3"/>
+        <v>0.34784254523098057</v>
+      </c>
+      <c r="S5" s="4">
+        <f t="shared" si="4"/>
+        <v>5.3840863305579481E-2</v>
+      </c>
+      <c r="T5" s="4">
+        <f t="shared" si="5"/>
+        <v>8.6545008607256705E-5</v>
+      </c>
+      <c r="U5" s="4">
+        <f t="shared" si="6"/>
+        <v>1.1827177913600728E-2</v>
+      </c>
+      <c r="V5" s="4">
+        <f t="shared" si="7"/>
+        <v>6.8285907867580474E-3</v>
+      </c>
+      <c r="W5" s="3"/>
+      <c r="X5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y5" s="2">
+        <f t="shared" si="8"/>
+        <v>0.85468417534310592</v>
+      </c>
+      <c r="Z5" s="2">
+        <f t="shared" si="9"/>
+        <v>8.6805954738870719E-2</v>
+      </c>
+      <c r="AA5" s="2">
+        <f t="shared" si="10"/>
+        <v>5.8509869918023379E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>20</v>
       </c>
-      <c r="B6">
-        <v>0.02</v>
-      </c>
-      <c r="C6">
-        <v>0.05</v>
-      </c>
-      <c r="D6">
-        <v>0.04</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>1.26</v>
-      </c>
-      <c r="J6">
-        <v>0.13</v>
-      </c>
-      <c r="K6">
-        <v>1.5</v>
+      <c r="B6" s="5">
+        <v>1.7841411754488945E-2</v>
+      </c>
+      <c r="C6" s="5">
+        <v>5.0119467079639435E-2</v>
+      </c>
+      <c r="D6" s="5">
+        <v>4.2588796466588974E-2</v>
+      </c>
+      <c r="E6" s="5">
+        <v>3.4635388292372227E-3</v>
+      </c>
+      <c r="F6" s="5">
+        <v>5.9330109252186958E-6</v>
+      </c>
+      <c r="G6" s="5">
+        <v>1.0936863254755735E-3</v>
+      </c>
+      <c r="H6" s="5">
+        <v>5.8787886518985033E-4</v>
+      </c>
+      <c r="I6" s="5">
+        <v>1.2575732469558716</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0.12796893715858459</v>
+      </c>
+      <c r="K6" s="5">
+        <v>1.5012469291687012</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>0.115704745054245</v>
+      </c>
+      <c r="O6" t="s">
+        <v>20</v>
+      </c>
+      <c r="P6" s="4">
+        <f t="shared" si="1"/>
+        <v>0.15419775348128106</v>
+      </c>
+      <c r="Q6" s="4">
+        <f t="shared" si="2"/>
+        <v>0.43316691166073007</v>
+      </c>
+      <c r="R6" s="4">
+        <f t="shared" si="3"/>
+        <v>0.36808167587787677</v>
+      </c>
+      <c r="S6" s="4">
+        <f t="shared" si="4"/>
+        <v>2.9934285129044946E-2</v>
+      </c>
+      <c r="T6" s="4">
+        <f t="shared" si="5"/>
+        <v>5.127716173124245E-5</v>
+      </c>
+      <c r="U6" s="4">
+        <f t="shared" si="6"/>
+        <v>9.4523895710830943E-3</v>
+      </c>
+      <c r="V6" s="4">
+        <f t="shared" si="7"/>
+        <v>5.0808535545732326E-3</v>
+      </c>
+      <c r="W6" s="3"/>
+      <c r="X6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y6" s="2">
+        <f t="shared" si="8"/>
+        <v>0.83768580805839765</v>
+      </c>
+      <c r="Z6" s="2">
+        <f t="shared" si="9"/>
+        <v>8.5241764477377469E-2</v>
+      </c>
+      <c r="AA6" s="2">
+        <f t="shared" si="10"/>
+        <v>7.7072427464224838E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="B7">
-        <v>0.02</v>
-      </c>
-      <c r="C7">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D7">
-        <v>0.06</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>1.26</v>
-      </c>
-      <c r="J7">
-        <v>0.13</v>
-      </c>
-      <c r="K7">
-        <v>1.54</v>
+      <c r="B7" s="5">
+        <v>1.9312787801027298E-2</v>
+      </c>
+      <c r="C7" s="5">
+        <v>6.8831361830234528E-2</v>
+      </c>
+      <c r="D7" s="5">
+        <v>5.7436879724264145E-2</v>
+      </c>
+      <c r="E7" s="5">
+        <v>3.806073684245348E-3</v>
+      </c>
+      <c r="F7" s="5">
+        <v>7.7534687079605646E-6</v>
+      </c>
+      <c r="G7" s="5">
+        <v>1.066677737981081E-3</v>
+      </c>
+      <c r="H7" s="5">
+        <v>5.8787886518985033E-4</v>
+      </c>
+      <c r="I7" s="5">
+        <v>1.2575732469558716</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0.12826119363307953</v>
+      </c>
+      <c r="K7" s="5">
+        <v>1.5368878841400146</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>0.15105344355106354</v>
+      </c>
+      <c r="O7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P7" s="4">
+        <f t="shared" si="1"/>
+        <v>0.12785400548977635</v>
+      </c>
+      <c r="Q7" s="4">
+        <f t="shared" si="2"/>
+        <v>0.45567555569804752</v>
+      </c>
+      <c r="R7" s="4">
+        <f t="shared" si="3"/>
+        <v>0.38024210752168414</v>
+      </c>
+      <c r="S7" s="4">
+        <f t="shared" si="4"/>
+        <v>2.5196868040672681E-2</v>
+      </c>
+      <c r="T7" s="4">
+        <f t="shared" si="5"/>
+        <v>5.1329307864070699E-5</v>
+      </c>
+      <c r="U7" s="4">
+        <f t="shared" si="6"/>
+        <v>7.061591665207494E-3</v>
+      </c>
+      <c r="V7" s="4">
+        <f t="shared" si="7"/>
+        <v>3.8918600686591973E-3</v>
+      </c>
+      <c r="W7" s="3"/>
+      <c r="X7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y7" s="2">
+        <f t="shared" si="8"/>
+        <v>0.81825958805027788</v>
+      </c>
+      <c r="Z7" s="2">
+        <f t="shared" si="9"/>
+        <v>8.3455140063681169E-2</v>
+      </c>
+      <c r="AA7" s="2">
+        <f t="shared" si="10"/>
+        <v>9.8285271886040942E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -965,6 +2680,9 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="I12" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
